--- a/data/GlycoNet Budget Template revised for year 1.xlsx
+++ b/data/GlycoNet Budget Template revised for year 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlycoNet\Dropbox\Project Management\SSF\RFPs\Translational Grant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlycoNet\Dropbox\Project Management\SSF\RFPs\Strategic Initiatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="705" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Total Project" sheetId="12" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>Capital Equipment (Max $5K/project)</t>
   </si>
   <si>
-    <t>Conferences (max $2K/year)</t>
+    <t>Conferences (max $3K/year)</t>
   </si>
 </sst>
 </file>
@@ -457,19 +457,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,9 +485,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +840,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -853,11 +853,11 @@
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -866,18 +866,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -915,18 +915,18 @@
       <c r="G6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="43" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="43" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1635,7 +1635,7 @@
     <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Tf1/Lrz83bfrGYU9TsHx7B3kp45ASm7bdl4lrVYtI4HlQQBZQK1bSNGmmCQPI+v1bnhSf+gfqqqTCBNlCMcPJQ==" saltValue="RQLG2l986vXxPMEccYUKIQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1h6EcUOCL1ye+Z1k5ff4PDpC75I18NKvqUps8tWI3HLHAR//450zf2OjgdtaBLgVzVd+seHpWOCoKA5qg3ZM1Q==" saltValue="USHo1/BtFlikEyVIlVOoyg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:D5"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,11 +1678,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1691,11 +1691,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1704,33 +1704,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -3191,15 +3191,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N7f7QkY9CK/xfp3OLM+DvI8aE6m5Xb9qbZoVnghAyghedfLjPuiP8S5+au+ODIJRvHUJhYljpHxUKVCAB7w6cA==" saltValue="gIHl0RcsvkftLP33eye/gg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gcidr8MfMJgnC8lWYURyz9CKCDIC+q3lX90IXbCTsugfMibadYBKHbtmwC2xoWbTjmutWsGesF2ISAjlaBjI7w==" saltValue="a53wf+E0csutYP20MTqEbg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3214,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,11 +3236,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3249,11 +3249,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3262,33 +3262,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -4749,8 +4749,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wohwp+mi4dYbkP0aJmv12yfu8+mk1VAV2sJDUjtjJMWEov2OG0mpa4Qbb97r/J5Mal2VzHdA3zWiCz56a+1SVA==" saltValue="Fs3ttjlO7b2T+KGhy3iQYA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mc2DVRzubFCk7rjDKYOxAWegRc92BSe0ppFrfAmwr1qmX/qsuL/jBJEFfGd3FhegL3iNwFwhM1gpdWwUUxYjjA==" saltValue="kbZRUx/8MC+CE5KTQOFr/w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="9">
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
@@ -4759,7 +4760,6 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4774,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,11 +4803,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4816,11 +4816,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4829,33 +4829,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -6253,19 +6253,19 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KM2aX7JFQ07l1PKea6fieFL48eNxTN/3c9+ROD/wkKDbGh8+tmhQMplMAlLQAhocr03++hh5cN+6oUEqai31UA==" saltValue="yija627vWCD5jZ57+Si6Gg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WceoGnYYixaUWEQKj/HrQgjlbkr01O8/SBawdWv7i9C2Q5PBF9CJEK0JK3pkEye338CSmXPVFkdbubmpq77s4A==" saltValue="MxGhGlhna2mYymX/JjGd3g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="11">
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6299,7 +6299,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6320,11 +6320,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6333,11 +6333,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -6346,33 +6346,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -7831,15 +7831,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fnH9GSAWcyQqi3L1muRFnujKkNe0UFVsLETjsNz4CwY6tRzXWPJ1gDaD5qpyees9ZTmQ1EYNzgp57GHX5NqgaQ==" saltValue="fKwDjH8uz5nKZSjK7jNVOg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tg5BY4OWPWsQwjMV74wGIZzGce8a1ljYK9zSi+S6aiHRoFo+/N2cDZOlDSTPJ26bXu1Cn+VoBvwvdrLaGMZ8Iw==" saltValue="k/rR2KO6VZPGym/DmggU8A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7857,7 +7857,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y15:Y17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7878,11 +7878,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7891,11 +7891,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7904,33 +7904,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -9399,15 +9399,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ia0J+lFVaKTvJ9PsqvSTSosrCNEtmgo3V8zmQVy/dYfkbnEC9CzdRo4Z8Xt9dCrMkcEKRftST7Som8szum6u5A==" saltValue="z/mb1cWRzFJpiE1guUZuwQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pjx2h7YAwaGqtog88DTz9o0EtanLfj0UwLwuKadTihixKA7JbI+6Hj0dRz0TS/5YsMfENcRupRvb2T4SwQkZMg==" saltValue="r1CTbaO+hOqP2tkZfjNdWQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -9424,7 +9424,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9445,11 +9445,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9458,11 +9458,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -9471,33 +9471,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -10962,15 +10962,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iSX/4SQVCoMj0LPzStQmLLqAQ5r0GnarFKoDjhks3H/9xd3/n1orBpeouprblwYsZ2Da3OZCv8AAORSDsIG/wg==" saltValue="JdUZL9I7hNpTGwu7PZTkFw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cO2LJwB97mLQ681qBOaA7d7ckZ5ST6wXyDgLYuiIjXjLFDimMqX2z6Z8Sqd6ZyzrZF6dIfxdRrsl5PnyBKddqQ==" saltValue="rOwvEVt3vXPngHiPAHaCbw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10986,7 +10986,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11007,11 +11007,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11020,11 +11020,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -11033,33 +11033,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -12520,15 +12520,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1ctm9iujYrP/o2Ke9nUcTKyOicxIm2k6t9WyQWvWrH/ccYF+ydE8gCzAVWJWigP0ugKQuF5rFCxAA4TwLxX6NQ==" saltValue="Dy+S5Z/BrR592F2C/gl61g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="n82K4uC3UIs5Pce4HUayG3KWo84qR1URF8mCh2NQ0ifFyD8LlhXesry68veL9PnKqlvgfw4augZ4y7f9VgQavA==" saltValue="a7EXiO4H3IuV9ZIFMGUNbQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12544,7 +12544,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12565,11 +12565,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -12578,11 +12578,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -12591,33 +12591,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -14078,15 +14078,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="umCDEWBvsPFpLQBpsh2Nlk1zITxhlplHGRCAXAi2TwUs8f2eEgqcNtTRUHz7x6AK0BZ8zb6gF15QOXzWNRLlwg==" saltValue="P09tiRw5O3DP2flpOxE8zg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Eg/N2yI8d69dvHOJxxGg+9SRwU75a9qNfOumO5srw1oJUfC6VinplxwMjdn+QRICXO4lCqM4KWtaZPpRgWYvmQ==" saltValue="ll1PmgOtTe7LysXrLpx8+Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14102,7 +14102,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14123,11 +14123,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -14136,11 +14136,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -14149,33 +14149,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -15636,15 +15636,15 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wuQqILkHLu7cgcFVzsKBmgF0IuoVJKcQf8ga/JKtWaM40747Viqw+Y7je0DlLfm848u2mmQvvz/JQ6Mksdpd+A==" saltValue="u5gvQWncF+ky+NGv5E7KbQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8igHeMrLqKU93hZWwWQ7RKDTkC3BDa1iXQpItJs5rKv5t+xlSYsBAgdNcRbrpM8MMEGAIdBWSwqFrKokBzIL7w==" saltValue="nI6aMDbPdFfLHvHe+OnG/Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15659,8 +15659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15681,11 +15681,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -15694,11 +15694,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -15707,33 +15707,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -17194,14 +17194,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zC353ZfAVpRk8ZKg4lm4jG03Iu2aTuN5hcetHa6tCTj1EPlng+/rWAHFAk/ezTzTK7tGMii901bER8wimfWBhA==" saltValue="FVvTuftjH+b7qNpQ6OMj9A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ITSpRd6kj4UU5h/CvzoBoUNPot5htIMYXIXEWFcgi8g8p6tDqlHuPhKUP9cdccL3egBG85MtJ9uwUIG5ZV8bYA==" saltValue="MJ2yh2+QrJu2NZqPwzSBEg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="6">
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17217,7 +17217,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17238,11 +17238,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -17251,11 +17251,11 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -17264,33 +17264,33 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -18751,16 +18751,16 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rCylD859aSJGdmn4FbMSUl6ZMWrp4cS4Q8V0IHDzQyDkAyvQCg1Gtb6V7irECuwkXOod5Tp/Aop2+VOLHMA20Q==" saltValue="qrNLhPu1cjgYAFDhXW0eTA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aDVD4+mCf9/LwCZrmj28jFZOkR2bLYoKDvEGplk6jLxc5LeWtbNsTDUEjx2CGn/6BXrqZaDqB8o6H0MCooa4ew==" saltValue="qnSVWjZE9Ac18Wf8z3GaTA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/data/GlycoNet Budget Template revised for year 1.xlsx
+++ b/data/GlycoNet Budget Template revised for year 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlycoNet\Dropbox\Project Management\SSF\RFPs\Strategic Initiatives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronika Sharko\Dropbox\11- Project Management\2-SSF\1-RFPs\3-Strategic Initiatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11240" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="Total Project" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="NPI-11" sheetId="11" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -821,22 +821,22 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7265625" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="11" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.26953125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,10 +879,10 @@
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="L5" s="34"/>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -928,7 +928,7 @@
       </c>
       <c r="M6" s="46"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -963,7 +963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -971,13 +971,13 @@
         <f>SUM(B9:B12)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="17" t="e">
+      <c r="C8" s="17">
         <f>C9+C10+C11+C12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
         <f t="shared" ref="D8:D22" si="0">SUM(B8:C8)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1015,13 +1015,13 @@
         <f>'NPI-1'!B9+'NPI-2'!B9+'NPI-3'!B9+'NPI-4'!B9+'NPI-5'!B9+'NPI-6'!B9+'NPI-7'!B9+'NPI-8'!B9+'NPI-9'!B9+'NPI-10'!B9+'NPI-11'!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="e">
-        <f>'NPI-1'!C9+'NPI-2'!C9+'NPI-3'!C9+'NPI-4'!C9+'NPI-5'!C9+'NPI-6'!C9+'NPI-7'!C9+'NPI-8'!C9+'NPI-9'!C9+'NPI-10'!C9+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="19" t="e">
+      <c r="C9" s="19">
+        <f>'NPI-1'!C9+'NPI-2'!C9+'NPI-3'!C9+'NPI-4'!C9+'NPI-5'!C9+'NPI-6'!C9+'NPI-7'!C9+'NPI-8'!C9+'NPI-9'!C9+'NPI-10'!C9+'NPI-11'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
@@ -1061,13 +1061,13 @@
         <f>'NPI-1'!B13+'NPI-2'!B13+'NPI-3'!B13+'NPI-4'!B13+'NPI-5'!B13+'NPI-6'!B13+'NPI-7'!B13+'NPI-8'!B13+'NPI-9'!B13+'NPI-10'!B13+'NPI-11'!B13</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19" t="e">
-        <f>'NPI-1'!C13+'NPI-2'!C13+'NPI-3'!C13+'NPI-4'!C13+'NPI-5'!C13+'NPI-6'!C13+'NPI-7'!C13+'NPI-8'!C13+'NPI-9'!C13+'NPI-10'!C13+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="19" t="e">
+      <c r="C10" s="19">
+        <f>'NPI-1'!C13+'NPI-2'!C13+'NPI-3'!C13+'NPI-4'!C13+'NPI-5'!C13+'NPI-6'!C13+'NPI-7'!C13+'NPI-8'!C13+'NPI-9'!C13+'NPI-10'!C13+'NPI-11'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
@@ -1107,13 +1107,13 @@
         <f>'NPI-1'!B17+'NPI-2'!B17+'NPI-3'!B17+'NPI-4'!B17+'NPI-5'!B17+'NPI-6'!B17+'NPI-7'!B17+'NPI-8'!B17+'NPI-9'!B17+'NPI-10'!B17+'NPI-11'!B17</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="e">
-        <f>'NPI-1'!C17+'NPI-2'!C17+'NPI-3'!C17+'NPI-4'!C17+'NPI-5'!C17+'NPI-6'!C17+'NPI-7'!C17+'NPI-8'!C17+'NPI-9'!C17+'NPI-10'!C17+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="19" t="e">
+      <c r="C11" s="19">
+        <f>'NPI-1'!C17+'NPI-2'!C17+'NPI-3'!C17+'NPI-4'!C17+'NPI-5'!C17+'NPI-6'!C17+'NPI-7'!C17+'NPI-8'!C17+'NPI-9'!C17+'NPI-10'!C17+'NPI-11'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -1153,13 +1153,13 @@
         <f>'NPI-1'!B21+'NPI-2'!B21+'NPI-3'!B21+'NPI-4'!B21+'NPI-5'!B21+'NPI-6'!B21+'NPI-7'!B21+'NPI-8'!B21+'NPI-9'!B21+'NPI-10'!B21+'NPI-11'!B21</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="e">
-        <f>'NPI-1'!C21+'NPI-2'!C21+'NPI-3'!C21+'NPI-4'!C21+'NPI-5'!C21+'NPI-6'!C21+'NPI-7'!C21+'NPI-8'!C21+'NPI-9'!C21+'NPI-10'!C21+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="19" t="e">
+      <c r="C12" s="19">
+        <f>'NPI-1'!C21+'NPI-2'!C21+'NPI-3'!C21+'NPI-4'!C21+'NPI-5'!C21+'NPI-6'!C21+'NPI-7'!C21+'NPI-8'!C21+'NPI-9'!C21+'NPI-10'!C21+'NPI-11'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -1199,13 +1199,13 @@
         <f>SUM(B14:B14)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="17" t="e">
+      <c r="C13" s="17">
         <f>SUM(C14:C14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -1243,13 +1243,13 @@
         <f>'NPI-1'!B26+'NPI-2'!B26+'NPI-3'!B26+'NPI-4'!B26+'NPI-5'!B26+'NPI-6'!B26+'NPI-7'!B26+'NPI-8'!B26+'NPI-9'!B26+'NPI-10'!B26+'NPI-11'!B26</f>
         <v>0</v>
       </c>
-      <c r="C14" s="23" t="e">
-        <f>'NPI-1'!C26+'NPI-2'!C26+'NPI-3'!C26+'NPI-4'!C26+'NPI-5'!C26+'NPI-6'!C26+'NPI-7'!C26+'NPI-8'!C26+'NPI-9'!C26+'NPI-10'!C26+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="19" t="e">
+      <c r="C14" s="23">
+        <f>'NPI-1'!C26+'NPI-2'!C26+'NPI-3'!C26+'NPI-4'!C26+'NPI-5'!C26+'NPI-6'!C26+'NPI-7'!C26+'NPI-8'!C26+'NPI-9'!C26+'NPI-10'!C26+'NPI-11'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>31</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1287,13 @@
         <f>SUM(B16:B17)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="20" t="e">
+      <c r="C15" s="20">
         <f>SUM(C16:C17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
@@ -1331,13 +1331,13 @@
         <f>'NPI-1'!B28+'NPI-2'!B28+'NPI-3'!B28+'NPI-4'!B28+'NPI-5'!B28+'NPI-6'!B28+'NPI-7'!B28+'NPI-8'!B28+'NPI-9'!B28+'NPI-10'!B28+'NPI-11'!B28</f>
         <v>0</v>
       </c>
-      <c r="C16" s="23" t="e">
-        <f>'NPI-1'!C28+'NPI-2'!C28+'NPI-3'!C28+'NPI-4'!C28+'NPI-5'!C28+'NPI-6'!C28+'NPI-7'!C28+'NPI-8'!C28+'NPI-9'!C28+'NPI-10'!C28+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="19" t="e">
+      <c r="C16" s="23">
+        <f>'NPI-1'!C28+'NPI-2'!C28+'NPI-3'!C28+'NPI-4'!C28+'NPI-5'!C28+'NPI-6'!C28+'NPI-7'!C28+'NPI-8'!C28+'NPI-9'!C28+'NPI-10'!C28+'NPI-11'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>21</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>41</v>
       </c>
@@ -1375,13 +1375,13 @@
         <f>'NPI-1'!B29+'NPI-2'!B29+'NPI-3'!B29+'NPI-4'!B29+'NPI-5'!B29+'NPI-6'!B29+'NPI-7'!B29+'NPI-8'!B29+'NPI-9'!B29+'NPI-10'!B29+'NPI-11'!B29</f>
         <v>0</v>
       </c>
-      <c r="C17" s="23" t="e">
-        <f>'NPI-1'!C29+'NPI-2'!C29+'NPI-3'!C29+'NPI-4'!C29+'NPI-5'!C29+'NPI-6'!C29+'NPI-7'!C29+'NPI-8'!C29+'NPI-9'!C29+'NPI-10'!C29+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="19" t="e">
+      <c r="C17" s="23">
+        <f>'NPI-1'!C29+'NPI-2'!C29+'NPI-3'!C29+'NPI-4'!C29+'NPI-5'!C29+'NPI-6'!C29+'NPI-7'!C29+'NPI-8'!C29+'NPI-9'!C29+'NPI-10'!C29+'NPI-11'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>32</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1419,13 +1419,13 @@
         <f>SUM(B19:B21)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="17" t="e">
+      <c r="C18" s="17">
         <f>SUM(C19:C21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1463,13 +1463,13 @@
         <f>'NPI-1'!B31+'NPI-2'!B31+'NPI-3'!B31+'NPI-4'!B31+'NPI-5'!B31+'NPI-6'!B31+'NPI-7'!B31+'NPI-8'!B31+'NPI-9'!B31+'NPI-10'!B31+'NPI-11'!B31</f>
         <v>0</v>
       </c>
-      <c r="C19" s="24" t="e">
-        <f>'NPI-1'!C31+'NPI-2'!C31+'NPI-3'!C31+'NPI-4'!C31+'NPI-5'!C31+'NPI-6'!C31+'NPI-7'!C31+'NPI-8'!C31+'NPI-9'!C31+'NPI-10'!C31+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="19" t="e">
+      <c r="C19" s="24">
+        <f>'NPI-1'!C31+'NPI-2'!C31+'NPI-3'!C31+'NPI-4'!C31+'NPI-5'!C31+'NPI-6'!C31+'NPI-7'!C31+'NPI-8'!C31+'NPI-9'!C31+'NPI-10'!C31+'NPI-11'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -1507,13 +1507,13 @@
         <f>'NPI-1'!B32+'NPI-2'!B32+'NPI-3'!B32+'NPI-4'!B32+'NPI-5'!B32+'NPI-6'!B32+'NPI-7'!B32+'NPI-8'!B32+'NPI-9'!B32+'NPI-10'!B32+'NPI-11'!B32</f>
         <v>0</v>
       </c>
-      <c r="C20" s="24" t="e">
-        <f>'NPI-1'!C32+'NPI-2'!C32+'NPI-3'!C32+'NPI-4'!C32+'NPI-5'!C32+'NPI-6'!C32+'NPI-7'!C32+'NPI-8'!C32+'NPI-9'!C32+'NPI-10'!C32+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="19" t="e">
+      <c r="C20" s="24">
+        <f>'NPI-1'!C32+'NPI-2'!C32+'NPI-3'!C32+'NPI-4'!C32+'NPI-5'!C32+'NPI-6'!C32+'NPI-7'!C32+'NPI-8'!C32+'NPI-9'!C32+'NPI-10'!C32+'NPI-11'!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
@@ -1551,13 +1551,13 @@
         <f>'NPI-1'!B33+'NPI-2'!B33+'NPI-3'!B33+'NPI-4'!B33+'NPI-5'!B33+'NPI-6'!B33+'NPI-7'!B33+'NPI-8'!B33+'NPI-9'!B33+'NPI-10'!B33+'NPI-11'!B33</f>
         <v>0</v>
       </c>
-      <c r="C21" s="24" t="e">
-        <f>'NPI-1'!C33+'NPI-2'!C33+'NPI-3'!C33+'NPI-4'!C33+'NPI-5'!C33+'NPI-6'!C33+'NPI-7'!C33+'NPI-8'!C33+'NPI-9'!C33+'NPI-10'!C33+'NPI-11'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="19" t="e">
+      <c r="C21" s="24">
+        <f>'NPI-1'!C33+'NPI-2'!C33+'NPI-3'!C33+'NPI-4'!C33+'NPI-5'!C33+'NPI-6'!C33+'NPI-7'!C33+'NPI-8'!C33+'NPI-9'!C33+'NPI-10'!C33+'NPI-11'!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>36</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1595,13 +1595,13 @@
         <f>B8+B13+B15+B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="17" t="e">
+      <c r="C22" s="17">
         <f>C8+C13+C15+C18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="17" t="e">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>14</v>
@@ -1631,11 +1631,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1h6EcUOCL1ye+Z1k5ff4PDpC75I18NKvqUps8tWI3HLHAR//450zf2OjgdtaBLgVzVd+seHpWOCoKA5qg3ZM1Q==" saltValue="USHo1/BtFlikEyVIlVOoyg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:D5"/>
@@ -1656,25 +1656,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1761,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3191,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gcidr8MfMJgnC8lWYURyz9CKCDIC+q3lX90IXbCTsugfMibadYBKHbtmwC2xoWbTjmutWsGesF2ISAjlaBjI7w==" saltValue="a53wf+E0csutYP20MTqEbg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -3214,25 +3214,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -3319,7 +3319,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mc2DVRzubFCk7rjDKYOxAWegRc92BSe0ppFrfAmwr1qmX/qsuL/jBJEFfGd3FhegL3iNwFwhM1gpdWwUUxYjjA==" saltValue="kbZRUx/8MC+CE5KTQOFr/w==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="9">
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
@@ -4775,31 +4775,31 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="12" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="12" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="47.1796875" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="16.453125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4857,10 +4857,10 @@
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
     </row>
-    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
     </row>
-    <row r="6" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="U6" s="51"/>
     </row>
-    <row r="7" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="19">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="19">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="19">
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="19">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="19">
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="19">
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="19">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="19">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -6253,19 +6253,19 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WceoGnYYixaUWEQKj/HrQgjlbkr01O8/SBawdWv7i9C2Q5PBF9CJEK0JK3pkEye338CSmXPVFkdbubmpq77s4A==" saltValue="MxGhGlhna2mYymX/JjGd3g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="Q3:T3"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6282,7 +6282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6299,24 +6299,24 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="S1" sqref="S1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6374,10 +6374,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -7831,7 +7831,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tg5BY4OWPWsQwjMV74wGIZzGce8a1ljYK9zSi+S6aiHRoFo+/N2cDZOlDSTPJ26bXu1Cn+VoBvwvdrLaGMZ8Iw==" saltValue="k/rR2KO6VZPGym/DmggU8A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -7857,24 +7857,24 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7932,10 +7932,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pjx2h7YAwaGqtog88DTz9o0EtanLfj0UwLwuKadTihixKA7JbI+6Hj0dRz0TS/5YsMfENcRupRvb2T4SwQkZMg==" saltValue="r1CTbaO+hOqP2tkZfjNdWQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -9424,24 +9424,24 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9499,10 +9499,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -10962,7 +10962,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cO2LJwB97mLQ681qBOaA7d7ckZ5ST6wXyDgLYuiIjXjLFDimMqX2z6Z8Sqd6ZyzrZF6dIfxdRrsl5PnyBKddqQ==" saltValue="rOwvEVt3vXPngHiPAHaCbw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -10989,21 +10989,21 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11016,7 +11016,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -11029,7 +11029,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -11061,10 +11061,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -12520,7 +12520,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n82K4uC3UIs5Pce4HUayG3KWo84qR1URF8mCh2NQ0ifFyD8LlhXesry68veL9PnKqlvgfw4augZ4y7f9VgQavA==" saltValue="a7EXiO4H3IuV9ZIFMGUNbQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -12543,25 +12543,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -12619,10 +12619,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -12648,7 +12648,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -13512,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -14078,7 +14078,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Eg/N2yI8d69dvHOJxxGg+9SRwU75a9qNfOumO5srw1oJUfC6VinplxwMjdn+QRICXO4lCqM4KWtaZPpRgWYvmQ==" saltValue="ll1PmgOtTe7LysXrLpx8+Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -14101,25 +14101,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14132,7 +14132,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -14177,10 +14177,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -14206,7 +14206,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -15636,7 +15636,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8igHeMrLqKU93hZWwWQ7RKDTkC3BDa1iXQpItJs5rKv5t+xlSYsBAgdNcRbrpM8MMEGAIdBWSwqFrKokBzIL7w==" saltValue="nI6aMDbPdFfLHvHe+OnG/Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -15659,25 +15659,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15690,7 +15690,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -15703,7 +15703,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -15735,10 +15735,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
@@ -15764,7 +15764,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -17194,7 +17194,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ITSpRd6kj4UU5h/CvzoBoUNPot5htIMYXIXEWFcgi8g8p6tDqlHuPhKUP9cdccL3egBG85MtJ9uwUIG5ZV8bYA==" saltValue="MJ2yh2+QrJu2NZqPwzSBEg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="6">
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="H6:I6"/>
@@ -17216,25 +17216,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" hidden="1" customWidth="1"/>
-    <col min="20" max="22" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="13" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.26953125" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="13.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -17260,7 +17260,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -17292,10 +17292,10 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="U5" s="42"/>
       <c r="V5" s="42"/>
     </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -17821,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -18003,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -18185,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>41</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>2</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
@@ -18751,7 +18751,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aDVD4+mCf9/LwCZrmj28jFZOkR2bLYoKDvEGplk6jLxc5LeWtbNsTDUEjx2CGn/6BXrqZaDqB8o6H0MCooa4ew==" saltValue="qnSVWjZE9Ac18Wf8z3GaTA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>

--- a/data/GlycoNet Budget Template revised for year 1.xlsx
+++ b/data/GlycoNet Budget Template revised for year 1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="41">
   <si>
     <t>EQUIPMENT</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Animal Work or Other Services</t>
-  </si>
-  <si>
-    <t>Schoenhofen (10%)</t>
   </si>
   <si>
     <t>GS2</t>
@@ -821,7 +818,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="23">
         <f>'NPI-1'!B26+'NPI-2'!B26+'NPI-3'!B26+'NPI-4'!B26+'NPI-5'!B26+'NPI-6'!B26+'NPI-7'!B26+'NPI-8'!B26+'NPI-9'!B26+'NPI-10'!B26+'NPI-11'!B26</f>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="23">
         <f>'NPI-1'!B29+'NPI-2'!B29+'NPI-3'!B29+'NPI-4'!B29+'NPI-5'!B29+'NPI-6'!B29+'NPI-7'!B29+'NPI-8'!B29+'NPI-9'!B29+'NPI-10'!B29+'NPI-11'!B29</f>
@@ -1635,7 +1632,7 @@
     <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oa2PydH0ojf27uA7Ha/duAl8JcOouO8vd53ajCUUZXazF44C1MKvfaBADMCnFA97/o5TwC81dQrdBXbOj6/V9A==" saltValue="Z2+nseivykU3zO0RIzWFhg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:D5"/>
@@ -2733,7 +2730,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -2886,7 +2883,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -3191,7 +3188,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="niSDagyM0Wf7x5PIdi5Oeztx+379zfFBU3MykfYG+VTfHYjzm7Ishs5ZC7ptShUiFnfTvj1QwiQ6TeXOqp7hMQ==" saltValue="FhvVNZrUpO37YG2hvAhL/A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -4291,7 +4288,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -4444,7 +4441,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -4749,7 +4746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1FQQkWjhxUKcXo7/yy/l2C5AeOTZXEXz8Heig3Ee3V2bXUaLhG+H2IdGcpROtuAZCTEHES197nIYOKOsS/QcKQ==" saltValue="8BXuMo2smrSi9dZx9Xkx8A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="9">
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="A5:D5"/>
@@ -5813,7 +5810,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="19">
@@ -5960,7 +5957,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="19">
@@ -6253,7 +6250,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fV4ljiQf+O5Nbmvkvg4XD45mrDDX+pLt3n2Ngo2jVe8XrSmCC2nKTAQ1OpXxnME56chPzSB/HQrvXPBAhpvr9g==" saltValue="eqsmtn09kWu/1iHMwpClSA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -6299,7 +6296,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7019,7 +7016,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7373,7 +7372,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -7526,7 +7525,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -7831,7 +7830,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rRkgHwRPpWTu0FSHBVu/daESAL0DYgFRn4ciMjxuiPgb9J6kNQFC7KLslVd8ueYslnvny6XgJLnIyLGYsmtGww==" saltValue="To0+CiyMT/q6GP+nn3JABw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -7857,7 +7856,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8205,7 +8204,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8387,7 +8386,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8933,7 +8932,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -9086,7 +9085,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9399,7 +9398,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3CgQ5eYjkUm9aSNzToBj7JUiK/oxVsxXzdMgzA/fRkNyQDsrfMsYho6lOroM2V7W5ALI/UEwowrw6qmxadIh1g==" saltValue="OstW28/1qFcjIV6+QJr2KQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -9424,7 +9423,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10145,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -10500,7 +10499,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -10653,7 +10652,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -10962,7 +10961,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tk4iL1yaATXxCg8a2azwRx2kEs/7qwIVvTp330FsSsPI5lsquFNjwo9nu4hs8LvNvKAarSNmUIhKRRI3cyJroQ==" saltValue="xRW/aVC4b5BzZUdbA5y89Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -12062,7 +12061,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -12215,7 +12214,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -12520,7 +12519,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yt4dOAb0Iwda5Wl7r9uc7J+UdWPtkLuGQWM5LbJvkxF5dtkmdu5FbigKBM8kSWz6f0CjrketSOiU99Iv6UgRQw==" saltValue="27hcnb3wrcErgxGwe7eXyw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -13620,7 +13619,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -13773,7 +13772,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -14078,7 +14077,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0IMuZusrllWhrkabCgG8+zadt+Pt2yh9FtnTwAIzlzlz/N26EDoC4azb+evR8pkVn2+PIcCCDvtyhD5W4v7UEg==" saltValue="kLW6e5vQSpS3/jFJH+bALQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -14102,7 +14101,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15178,7 +15177,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -15331,7 +15330,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -15636,7 +15635,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GcJX/xXJi74pSMFh2Vx9Ggy+Sp4C2nrcwGAyc6+y4R+9UsIH/HOxl7NQF04r7tP4rl6VTVJE1nxCvj3FDlUNjw==" saltValue="5rF7b74bfgA3sHyxU0XeqQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="7">
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
@@ -16736,7 +16735,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -16889,7 +16888,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -17194,7 +17193,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rmfLr2bHN/T3y3nftO+tPkW0xnks7bPvmjjtPrP5kSDcPm7fO2beslKDwBt+NgmX+TbKaP+rULcCGrKB0bACiQ==" saltValue="u0H6BKAqa8mu7pmJ/RoiKQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="6">
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="H6:I6"/>
@@ -18293,7 +18292,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -18446,7 +18445,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -18751,7 +18750,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YyXv1pVIL7P5vt1w1uzuMitvRao4qJCZU7YizS2QdBAqHVJT7lVzBoyuRbyKtyd/swrgz5cfMBptJh6GmrBFPg==" saltValue="NKKTiaHnANeSHBCY4PGOvw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="8">
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
